--- a/template.xlsx
+++ b/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perpindahan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rezaararsy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AA182-C8B3-8E43-9839-598932989C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>kecamatan</t>
   </si>
@@ -44,19 +45,40 @@
     <t>jenis_pindah</t>
   </si>
   <si>
-    <t>skpwni</t>
-  </si>
-  <si>
     <t>tgl_pindah</t>
   </si>
   <si>
     <t>alamat_rt</t>
+  </si>
+  <si>
+    <t>skpwni/skdwni</t>
+  </si>
+  <si>
+    <t>KODE PINDAH DATANG = 1</t>
+  </si>
+  <si>
+    <t>KODE PINDAH KELUAR = 2</t>
+  </si>
+  <si>
+    <t>MASUKKAN KODE KECAMATAN DAN KODE KELURAHAN SESUAI DOKUMEN PANDUAN</t>
+  </si>
+  <si>
+    <t>MASUKKAN FORMAT TANGGAL PINDAH YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>reza tes</t>
+  </si>
+  <si>
+    <t>xxx/123/xx</t>
+  </si>
+  <si>
+    <t>JALAN IJEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,26 +390,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,13 +430,58 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1009</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44691</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
